--- a/UsloviaLab/МОД/Lab #1/Time series datasets/Electricity_Net_Generation_From_Coal_Electric_Power_Sector_Monthly.xlsx
+++ b/UsloviaLab/МОД/Lab #1/Time series datasets/Electricity_Net_Generation_From_Coal_Electric_Power_Sector_Monthly.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Github repos\Laboratorki\UsloviaLab\МОД\Lab #1\Time series datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD3C51-61DD-435E-B986-1F5A8C8568DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18975" windowHeight="9915"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <t>Jan-73</t>
   </si>
@@ -1753,16 +1759,13 @@
   </si>
   <si>
     <t>Mar-21</t>
-  </si>
-  <si>
-    <t>Date,Electricity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1864,6 +1867,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1910,7 +1921,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1942,9 +1953,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1976,6 +2005,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2151,4647 +2198,4644 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B580"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B579"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B1" s="2">
         <v>75190.149000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>67797.945999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>67797.945999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+        <v>67387.611999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>67387.611999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+        <v>63935.048999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>63935.048999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+        <v>64927.180999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>64927.180999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+        <v>69592.039000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>69592.039000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+        <v>75988.308000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>75988.308000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+        <v>78365.191000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>78365.191000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+        <v>71304.493000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>71304.493000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+        <v>70104.343999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>70104.343999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+        <v>69706.997000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>69706.997000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+        <v>73352.160999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>73352.160999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+        <v>73631.774000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>73631.774000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+        <v>66116.767000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>66116.767000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+        <v>67746.788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>67746.788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+        <v>62866.281000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>62866.281000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+        <v>67789.399999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>67789.399999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+        <v>67470.506999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>67470.506999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
+        <v>76361.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>76361.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
+        <v>74759.539999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>74759.539999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1">
+        <v>65266.997000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>65266.997000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1">
+        <v>66953.771999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>66953.771999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1">
+        <v>66996.028999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>66996.028999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1">
+        <v>72473.793999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>72473.793999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1">
+        <v>74836.043000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>74836.043000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1">
+        <v>67285.093999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>67285.093999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1">
+        <v>69176.491999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
-        <v>69176.491999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1">
+        <v>64453.298000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>64453.298000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1">
+        <v>64741.072999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>64741.072999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1">
+        <v>70346.206999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>70346.206999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1">
+        <v>76294.722999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>76294.722999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1">
+        <v>78882.010999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>78882.010999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1">
+        <v>68558.858999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>68558.858999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1">
+        <v>69042.720000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>69042.720000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1">
+        <v>70424.195000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>70424.195000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1">
+        <v>78745.506999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>78745.506999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1">
+        <v>83690.963000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>83690.963000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1">
+        <v>73516.195999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>73516.195999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1">
+        <v>76553.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>76553.69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1">
+        <v>72559.403000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>72559.403000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
+        <v>72499.187999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>72499.187999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+        <v>76925.845000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>76925.845000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
+        <v>83279.641000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
-        <v>83279.641000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
+        <v>84206.525999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>84206.525999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+        <v>75369.701000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4">
-        <v>75369.701000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+        <v>76932.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>76932.19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+        <v>81668.737999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4">
-        <v>81668.737999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
+        <v>87188.911999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>87188.911999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
+        <v>89829.160999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4">
-        <v>89829.160999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1">
+        <v>78734.95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>78734.95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1">
+        <v>77492.179000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4">
-        <v>77492.179000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1">
+        <v>70866.254000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>70866.254000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1">
+        <v>77049.032999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4">
-        <v>77049.032999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1">
+        <v>83116.514999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>83116.514999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1">
+        <v>92372.785000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4">
-        <v>92372.785000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1">
+        <v>90730.453999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4">
-        <v>90730.453999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+        <v>82564.551999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4">
-        <v>82564.551999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+        <v>79382.483999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>79382.483999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+        <v>79467.834000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4">
-        <v>79467.834000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+        <v>83612.395999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>83612.395999999993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1">
+        <v>85005.951000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4">
-        <v>85005.951000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1">
+        <v>70569.645999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>70569.645999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1">
+        <v>66623.494000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4">
-        <v>66623.494000000006</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1">
+        <v>70327.332999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4">
-        <v>70327.332999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1">
+        <v>76431.710999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4">
-        <v>76431.710999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1">
+        <v>84033.019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>84033.019</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1">
+        <v>89606.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4">
-        <v>89606.31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1">
+        <v>93429.682000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4">
-        <v>93429.682000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1">
+        <v>87041.270999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4">
-        <v>87041.270999999993</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1">
+        <v>82082.993000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4">
-        <v>82082.993000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1">
+        <v>81727.361999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4">
-        <v>81727.361999999994</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1">
+        <v>88863.312999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4">
-        <v>88863.312999999995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1">
+        <v>94985.712</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4">
-        <v>94985.712</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1">
+        <v>84747.823000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4">
-        <v>84747.823000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1">
+        <v>85219.536999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4">
-        <v>85219.536999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1">
+        <v>80450.172999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4">
-        <v>80450.172999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1">
+        <v>86149.297999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4">
-        <v>86149.297999999995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1">
+        <v>90817.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4">
-        <v>90817.26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1">
+        <v>97879.472999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4">
-        <v>97879.472999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1">
+        <v>97910.027000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4">
-        <v>97910.027000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1">
+        <v>85664.343999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4">
-        <v>85664.343999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1">
+        <v>87527.611999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4">
-        <v>87527.611999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1">
+        <v>87455.782999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4">
-        <v>87455.782999999996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1">
+        <v>96230.047999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4">
-        <v>96230.047999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1">
+        <v>103257.677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4">
-        <v>103257.677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1">
+        <v>98150.804000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4">
-        <v>98150.804000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" thickBot="1">
+        <v>95386.178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4">
-        <v>95386.178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" thickBot="1">
+        <v>83561.812999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4">
-        <v>83561.812999999995</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1">
+        <v>84884.262000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4">
-        <v>84884.262000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1">
+        <v>93691.764999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4">
-        <v>93691.764999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" thickBot="1">
+        <v>108456.913</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4">
-        <v>108456.913</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1">
+        <v>107579.936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4">
-        <v>107579.936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1">
+        <v>97556.952000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4">
-        <v>97556.952000000005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1">
+        <v>91196.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4">
-        <v>91196.02</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1">
+        <v>93500.667000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4">
-        <v>93500.667000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1">
+        <v>104339.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4">
-        <v>104339.38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1">
+        <v>111764.81299999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4">
-        <v>111764.81299999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1">
+        <v>97653.289000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>97653.289000000004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1">
+        <v>99482.127999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>99482.127999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" thickBot="1">
+        <v>88109.349000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>88109.349000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1">
+        <v>88940.698000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4">
-        <v>88940.698000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" thickBot="1">
+        <v>99837.067999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4">
-        <v>99837.067999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1">
+        <v>112853.683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4">
-        <v>112853.683</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" thickBot="1">
+        <v>108402.855</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4">
-        <v>108402.855</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" thickBot="1">
+        <v>97663.877999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="4">
-        <v>97663.877999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1">
+        <v>97046.239000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4">
-        <v>97046.239000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" thickBot="1">
+        <v>94841.001000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4">
-        <v>94841.001000000004</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" thickBot="1">
+        <v>106608.232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4">
-        <v>106608.232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1">
+        <v>113123.63099999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4">
-        <v>113123.63099999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" thickBot="1">
+        <v>96905.528000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4">
-        <v>96905.528000000006</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" thickBot="1">
+        <v>97625.093999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4">
-        <v>97625.093999999997</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1">
+        <v>88115.664000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4">
-        <v>88115.664000000004</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" thickBot="1">
+        <v>92997.402000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4">
-        <v>92997.402000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" thickBot="1">
+        <v>95313.637000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4">
-        <v>95313.637000000002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" thickBot="1">
+        <v>110617.22500000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="4">
-        <v>110617.22500000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" thickBot="1">
+        <v>110124.075</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4">
-        <v>110124.075</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" thickBot="1">
+        <v>96895.697</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4">
-        <v>96895.697</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" thickBot="1">
+        <v>93769.09</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4">
-        <v>93769.09</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" thickBot="1">
+        <v>95547.274999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4">
-        <v>95547.274999999994</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" thickBot="1">
+        <v>100969.88800000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4">
-        <v>100969.88800000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" thickBot="1">
+        <v>108164.265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4">
-        <v>108164.265</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" thickBot="1">
+        <v>92691.601999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4">
-        <v>92691.601999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" thickBot="1">
+        <v>95598.248000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4">
-        <v>95598.248000000007</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" thickBot="1">
+        <v>88113.755000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4">
-        <v>88113.755000000005</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" thickBot="1">
+        <v>91296.385999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4">
-        <v>91296.385999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" thickBot="1">
+        <v>101512.015</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4">
-        <v>101512.015</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" thickBot="1">
+        <v>121560.33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4">
-        <v>121560.33</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" thickBot="1">
+        <v>129312.743</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="4">
-        <v>129312.743</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" thickBot="1">
+        <v>108867.586</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="4">
-        <v>108867.586</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" thickBot="1">
+        <v>101951.28200000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4">
-        <v>101951.28200000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" thickBot="1">
+        <v>103225.255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4">
-        <v>103225.255</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" thickBot="1">
+        <v>117130.811</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4">
-        <v>117130.811</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" thickBot="1">
+        <v>120850.261</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4">
-        <v>120850.261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" thickBot="1">
+        <v>104706.39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4">
-        <v>104706.39</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" thickBot="1">
+        <v>111157.719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4">
-        <v>111157.719</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" thickBot="1">
+        <v>97541.501000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4">
-        <v>97541.501000000004</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" thickBot="1">
+        <v>100138.89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4">
-        <v>100138.89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" thickBot="1">
+        <v>115425.514</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4">
-        <v>115425.514</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" thickBot="1">
+        <v>121094.329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4">
-        <v>121094.329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" thickBot="1">
+        <v>127743.902</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4">
-        <v>127743.902</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" thickBot="1">
+        <v>108861.54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4">
-        <v>108861.54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" thickBot="1">
+        <v>110800.527</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4">
-        <v>110800.527</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" thickBot="1">
+        <v>109759.28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4">
-        <v>109759.28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" thickBot="1">
+        <v>113600.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4">
-        <v>113600.9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" thickBot="1">
+        <v>129092.47100000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4">
-        <v>129092.47100000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" thickBot="1">
+        <v>112036.83</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4">
-        <v>112036.83</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" thickBot="1">
+        <v>111390.70299999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4">
-        <v>111390.70299999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" thickBot="1">
+        <v>104790.423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4">
-        <v>104790.423</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" thickBot="1">
+        <v>111514.66800000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" s="4">
-        <v>111514.66800000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" thickBot="1">
+        <v>115583.004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4">
-        <v>115583.004</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" thickBot="1">
+        <v>128880.144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" s="4">
-        <v>128880.144</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" thickBot="1">
+        <v>126549.659</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4">
-        <v>126549.659</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1">
+        <v>114630.253</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" s="4">
-        <v>114630.253</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" thickBot="1">
+        <v>111053.345</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="4">
-        <v>111053.345</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" thickBot="1">
+        <v>108814.643</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="4">
-        <v>108814.643</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" thickBot="1">
+        <v>127791.97900000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="4">
-        <v>127791.97900000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" thickBot="1">
+        <v>130189.924</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="4">
-        <v>130189.924</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" thickBot="1">
+        <v>110982.428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="4">
-        <v>110982.428</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" thickBot="1">
+        <v>110389.796</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="4">
-        <v>110389.796</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" thickBot="1">
+        <v>98995.106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4">
-        <v>98995.106</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" thickBot="1">
+        <v>104900.302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="4">
-        <v>104900.302</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" thickBot="1">
+        <v>120153.98699999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4">
-        <v>120153.98699999999</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" thickBot="1">
+        <v>136653.93599999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="4">
-        <v>136653.93599999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" thickBot="1">
+        <v>123617.62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="4">
-        <v>123617.62</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" thickBot="1">
+        <v>113957.353</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="4">
-        <v>113957.353</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" thickBot="1">
+        <v>108583.774</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="4">
-        <v>108583.774</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" thickBot="1">
+        <v>109045.451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4">
-        <v>109045.451</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" thickBot="1">
+        <v>118361.77499999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4">
-        <v>118361.77499999999</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" thickBot="1">
+        <v>126630.512</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="4">
-        <v>126630.512</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15.75" thickBot="1">
+        <v>109647.93399999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="4">
-        <v>109647.93399999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" thickBot="1">
+        <v>111920.394</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4">
-        <v>111920.394</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" thickBot="1">
+        <v>105474.356</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="4">
-        <v>105474.356</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" thickBot="1">
+        <v>115155.284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="4">
-        <v>115155.284</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="15.75" thickBot="1">
+        <v>129350.599</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="4">
-        <v>129350.599</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" thickBot="1">
+        <v>143502.91099999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4">
-        <v>143502.91099999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="15.75" thickBot="1">
+        <v>143194.31200000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="4">
-        <v>143194.31200000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="15.75" thickBot="1">
+        <v>120777.103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="4">
-        <v>120777.103</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="15.75" thickBot="1">
+        <v>117742.848</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="4">
-        <v>117742.848</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="15.75" thickBot="1">
+        <v>114171.65</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" s="4">
-        <v>114171.65</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="15.75" thickBot="1">
+        <v>126213.387</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" s="4">
-        <v>126213.387</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="15.75" thickBot="1">
+        <v>137845.29300000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" s="4">
-        <v>137845.29300000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="15.75" thickBot="1">
+        <v>126267.376</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" s="4">
-        <v>126267.376</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="15.75" thickBot="1">
+        <v>120033.644</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" s="4">
-        <v>120033.644</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="15.75" thickBot="1">
+        <v>109135.47199999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" s="4">
-        <v>109135.47199999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="15.75" thickBot="1">
+        <v>115195.008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" s="4">
-        <v>115195.008</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="15.75" thickBot="1">
+        <v>132267.995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" s="4">
-        <v>132267.995</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="15.75" thickBot="1">
+        <v>144301.353</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" s="4">
-        <v>144301.353</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="15.75" thickBot="1">
+        <v>152376.52499999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" s="4">
-        <v>152376.52499999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="15.75" thickBot="1">
+        <v>124409.811</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" s="4">
-        <v>124409.811</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="15.75" thickBot="1">
+        <v>121339.387</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" s="4">
-        <v>121339.387</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="15.75" thickBot="1">
+        <v>121053.811</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" s="4">
-        <v>121053.811</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="15.75" thickBot="1">
+        <v>136427.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" s="4">
-        <v>136427.1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="15.75" thickBot="1">
+        <v>135938.51199999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" s="4">
-        <v>135938.51199999999</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="15.75" thickBot="1">
+        <v>127899.361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" s="4">
-        <v>127899.361</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="15.75" thickBot="1">
+        <v>127435.17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" s="4">
-        <v>127435.17</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="15.75" thickBot="1">
+        <v>116097.898</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" s="4">
-        <v>116097.898</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="15.75" thickBot="1">
+        <v>119774.96</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" s="4">
-        <v>119774.96</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="15.75" thickBot="1">
+        <v>129335.273</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" s="4">
-        <v>129335.273</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" thickBot="1">
+        <v>139415.01199999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" s="4">
-        <v>139415.01199999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" thickBot="1">
+        <v>142696.27600000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" s="4">
-        <v>142696.27600000001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="15.75" thickBot="1">
+        <v>127608.66800000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" s="4">
-        <v>127608.66800000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="15.75" thickBot="1">
+        <v>123078.51300000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" s="4">
-        <v>123078.51300000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="15.75" thickBot="1">
+        <v>125034.96799999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" s="4">
-        <v>125034.96799999999</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="15.75" thickBot="1">
+        <v>148051.58600000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" s="4">
-        <v>148051.58600000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="15.75" thickBot="1">
+        <v>133686.09099999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" s="4">
-        <v>133686.09099999999</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="15.75" thickBot="1">
+        <v>117001.605</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" s="4">
-        <v>117001.605</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="15.75" thickBot="1">
+        <v>124125.711</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" s="4">
-        <v>124125.711</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="15.75" thickBot="1">
+        <v>118200.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" s="4">
-        <v>118200.1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="15.75" thickBot="1">
+        <v>120745.75599999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" s="4">
-        <v>120745.75599999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="15.75" thickBot="1">
+        <v>133687.42499999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" s="4">
-        <v>133687.42499999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="15.75" thickBot="1">
+        <v>145515.88699999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" s="4">
-        <v>145515.88699999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.75" thickBot="1">
+        <v>148485.94899999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" s="4">
-        <v>148485.94899999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" thickBot="1">
+        <v>136579.08900000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" s="4">
-        <v>136579.08900000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="15.75" thickBot="1">
+        <v>131225.899</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" s="4">
-        <v>131225.899</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.75" thickBot="1">
+        <v>124997.073</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" s="4">
-        <v>124997.073</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15.75" thickBot="1">
+        <v>137858.337</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" s="4">
-        <v>137858.337</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.75" thickBot="1">
+        <v>143562.50399999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" s="4">
-        <v>143562.50399999999</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="15.75" thickBot="1">
+        <v>119210.811</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" s="4">
-        <v>119210.811</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="15.75" thickBot="1">
+        <v>119714.86199999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" s="4">
-        <v>119714.86199999999</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" thickBot="1">
+        <v>113699.175</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" s="4">
-        <v>113699.175</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.75" thickBot="1">
+        <v>125318.569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" s="4">
-        <v>125318.569</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" thickBot="1">
+        <v>133467.95000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" s="4">
-        <v>133467.95000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.75" thickBot="1">
+        <v>145637.95199999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" s="4">
-        <v>145637.95199999999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" thickBot="1">
+        <v>145837.25700000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" s="4">
-        <v>145837.25700000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" thickBot="1">
+        <v>130613.061</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226" s="4">
-        <v>130613.061</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" thickBot="1">
+        <v>126953.34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227" s="4">
-        <v>126953.34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" thickBot="1">
+        <v>130596.96799999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228" s="4">
-        <v>130596.96799999999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15.75" thickBot="1">
+        <v>134233.18700000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="4">
-        <v>134233.18700000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15.75" thickBot="1">
+        <v>139227.837</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="4">
-        <v>139227.837</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" thickBot="1">
+        <v>123416.887</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231" s="4">
-        <v>123416.887</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.75" thickBot="1">
+        <v>129445.83100000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232" s="4">
-        <v>129445.83100000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15.75" thickBot="1">
+        <v>121568.769</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233" s="4">
-        <v>121568.769</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15.75" thickBot="1">
+        <v>125481.368</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234" s="4">
-        <v>125481.368</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15.75" thickBot="1">
+        <v>131401.47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235" s="4">
-        <v>131401.47</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15.75" thickBot="1">
+        <v>151091.554</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236" s="4">
-        <v>151091.554</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15.75" thickBot="1">
+        <v>143864.57800000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237" s="4">
-        <v>143864.57800000001</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.75" thickBot="1">
+        <v>135083.413</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238" s="4">
-        <v>135083.413</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15.75" thickBot="1">
+        <v>129711.159</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239" s="4">
-        <v>129711.159</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" thickBot="1">
+        <v>127272.64200000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240" s="4">
-        <v>127272.64200000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15.75" thickBot="1">
+        <v>140148.31099999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241" s="4">
-        <v>140148.31099999999</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15.75" thickBot="1">
+        <v>140574.90700000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242" s="4">
-        <v>140574.90700000001</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15.75" thickBot="1">
+        <v>132156.54500000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243" s="4">
-        <v>132156.54500000001</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="15.75" thickBot="1">
+        <v>138593.54800000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244" s="4">
-        <v>138593.54800000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="15.75" thickBot="1">
+        <v>122256.561</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245" s="4">
-        <v>122256.561</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="15.75" thickBot="1">
+        <v>122818.533</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246" s="4">
-        <v>122818.533</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="15.75" thickBot="1">
+        <v>139692.51199999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247" s="4">
-        <v>139692.51199999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15.75" thickBot="1">
+        <v>160942.87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248" s="4">
-        <v>160942.87</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15.75" thickBot="1">
+        <v>158704.14300000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249" s="4">
-        <v>158704.14300000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="15.75" thickBot="1">
+        <v>136152.11300000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250" s="4">
-        <v>136152.11300000001</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" thickBot="1">
+        <v>133028.08799999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251" s="4">
-        <v>133028.08799999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="15.75" thickBot="1">
+        <v>134411.99400000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252" s="4">
-        <v>134411.99400000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="15.75" thickBot="1">
+        <v>146132.33799999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253" s="4">
-        <v>146132.33799999999</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="15.75" thickBot="1">
+        <v>155627.101</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254" s="4">
-        <v>155627.101</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="15.75" thickBot="1">
+        <v>133605.86900000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255" s="4">
-        <v>133605.86900000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="15.75" thickBot="1">
+        <v>136041.52499999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256" s="4">
-        <v>136041.52499999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="15.75" thickBot="1">
+        <v>122009.284</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257" s="4">
-        <v>122009.284</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="15.75" thickBot="1">
+        <v>128833.659</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258" s="4">
-        <v>128833.659</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="15.75" thickBot="1">
+        <v>150215.334</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259" s="4">
-        <v>150215.334</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="15.75" thickBot="1">
+        <v>155046.372</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260" s="4">
-        <v>155046.372</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="15.75" thickBot="1">
+        <v>154238.17300000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261" s="4">
-        <v>154238.17300000001</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="15.75" thickBot="1">
+        <v>134544.36199999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262" s="4">
-        <v>134544.36199999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="15.75" thickBot="1">
+        <v>132076.87700000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263" s="4">
-        <v>132076.87700000001</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="15.75" thickBot="1">
+        <v>125930.588</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264" s="4">
-        <v>125930.588</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="15.75" thickBot="1">
+        <v>138106.948</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265" s="4">
-        <v>138106.948</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="15.75" thickBot="1">
+        <v>145267.30499999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266" s="4">
-        <v>145267.30499999999</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="15.75" thickBot="1">
+        <v>131022.45299999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267" s="4">
-        <v>131022.45299999999</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="15.75" thickBot="1">
+        <v>129516.21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268" s="4">
-        <v>129516.21</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="15.75" thickBot="1">
+        <v>121167.787</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269" s="4">
-        <v>121167.787</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="15.75" thickBot="1">
+        <v>128539.292</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270" s="4">
-        <v>128539.292</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="15.75" thickBot="1">
+        <v>140857.91</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271" s="4">
-        <v>140857.91</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="15.75" thickBot="1">
+        <v>161553.15299999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272" s="4">
-        <v>161553.15299999999</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="15.75" thickBot="1">
+        <v>170042.788</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273" s="4">
-        <v>170042.788</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="15.75" thickBot="1">
+        <v>137952.20000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274" s="4">
-        <v>137952.20000000001</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="15.75" thickBot="1">
+        <v>133951.16800000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275" s="4">
-        <v>133951.16800000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="15.75" thickBot="1">
+        <v>136583.55100000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276" s="4">
-        <v>136583.55100000001</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="15.75" thickBot="1">
+        <v>149602.50200000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277" s="4">
-        <v>149602.50200000001</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="15.75" thickBot="1">
+        <v>155428.69099999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278" s="4">
-        <v>155428.69099999999</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="15.75" thickBot="1">
+        <v>140232.93900000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279" s="4">
-        <v>140232.93900000001</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="15.75" thickBot="1">
+        <v>141140.09400000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280" s="4">
-        <v>141140.09400000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="15.75" thickBot="1">
+        <v>127693.673</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281" s="4">
-        <v>127693.673</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="15.75" thickBot="1">
+        <v>137115.92800000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282" s="4">
-        <v>137115.92800000001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="15.75" thickBot="1">
+        <v>148971.27900000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283" s="4">
-        <v>148971.27900000001</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="15.75" thickBot="1">
+        <v>161666.10699999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284" s="4">
-        <v>161666.10699999999</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="15.75" thickBot="1">
+        <v>164996.46400000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285" s="4">
-        <v>164996.46400000001</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="15.75" thickBot="1">
+        <v>145153.84899999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286" s="4">
-        <v>145153.84899999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="15.75" thickBot="1">
+        <v>145458.67000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287" s="4">
-        <v>145458.67000000001</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="15.75" thickBot="1">
+        <v>148092.56299999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288" s="4">
-        <v>148092.56299999999</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="15.75" thickBot="1">
+        <v>156022.734</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289" s="4">
-        <v>156022.734</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="15.75" thickBot="1">
+        <v>164259.486</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290" s="4">
-        <v>164259.486</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="15.75" thickBot="1">
+        <v>137486.321</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291" s="4">
-        <v>137486.321</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="15.75" thickBot="1">
+        <v>140371.152</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292" s="4">
-        <v>140371.152</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="15.75" thickBot="1">
+        <v>134172.15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293" s="4">
-        <v>134172.15</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="15.75" thickBot="1">
+        <v>138618.58300000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294" s="4">
-        <v>138618.58300000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="15.75" thickBot="1">
+        <v>148700.25899999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295" s="4">
-        <v>148700.25899999999</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="15.75" thickBot="1">
+        <v>170167.27100000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296" s="4">
-        <v>170167.27100000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="15.75" thickBot="1">
+        <v>165377.068</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297" s="4">
-        <v>165377.068</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="15.75" thickBot="1">
+        <v>154218.76800000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298" s="4">
-        <v>154218.76800000001</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="15.75" thickBot="1">
+        <v>154806.215</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299" s="4">
-        <v>154806.215</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="15.75" thickBot="1">
+        <v>148728.80799999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300" s="4">
-        <v>148728.80799999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="15.75" thickBot="1">
+        <v>163855.67800000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B301" s="4">
-        <v>163855.67800000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="15.75" thickBot="1">
+        <v>160360.11499999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B302" s="4">
-        <v>160360.11499999999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="15.75" thickBot="1">
+        <v>139689.84899999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B303" s="4">
-        <v>139689.84899999999</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="15.75" thickBot="1">
+        <v>147901.511</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B304" s="4">
-        <v>147901.511</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="15.75" thickBot="1">
+        <v>135407.76500000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B305" s="4">
-        <v>135407.76500000001</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="15.75" thickBot="1">
+        <v>148792.084</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B306" s="4">
-        <v>148792.084</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="15.75" thickBot="1">
+        <v>161122.231</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B307" s="4">
-        <v>161122.231</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="15.75" thickBot="1">
+        <v>176980.55900000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B308" s="4">
-        <v>176980.55900000001</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="15.75" thickBot="1">
+        <v>176421.01300000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B309" s="4">
-        <v>176421.01300000001</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="15.75" thickBot="1">
+        <v>158732.17600000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B310" s="4">
-        <v>158732.17600000001</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="15.75" thickBot="1">
+        <v>147849.329</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B311" s="4">
-        <v>147849.329</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="15.75" thickBot="1">
+        <v>141174.36900000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B312" s="4">
-        <v>141174.36900000001</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="15.75" thickBot="1">
+        <v>155762.30499999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B313" s="4">
-        <v>155762.30499999999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="15.75" thickBot="1">
+        <v>163017.163</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B314" s="4">
-        <v>163017.163</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="15.75" thickBot="1">
+        <v>139944.64499999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B315" s="4">
-        <v>139944.64499999999</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="15.75" thickBot="1">
+        <v>148914.579</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B316" s="4">
-        <v>148914.579</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="15.75" thickBot="1">
+        <v>140376.421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B317" s="4">
-        <v>140376.421</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="15.75" thickBot="1">
+        <v>146738.45499999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B318" s="4">
-        <v>146738.45499999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="15.75" thickBot="1">
+        <v>159879.77900000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B319" s="4">
-        <v>159879.77900000001</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="15.75" thickBot="1">
+        <v>181287.75599999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B320" s="4">
-        <v>181287.75599999999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="15.75" thickBot="1">
+        <v>175317.462</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B321" s="4">
-        <v>175317.462</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" ht="15.75" thickBot="1">
+        <v>156297.97700000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B322" s="4">
-        <v>156297.97700000001</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="15.75" thickBot="1">
+        <v>148843.45699999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B323" s="4">
-        <v>148843.45699999999</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="15.75" thickBot="1">
+        <v>142367.465</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B324" s="4">
-        <v>142367.465</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="15.75" thickBot="1">
+        <v>155632.56400000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B325" s="4">
-        <v>155632.56400000001</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="15.75" thickBot="1">
+        <v>176226.53899999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B326" s="4">
-        <v>176226.53899999999</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" ht="15.75" thickBot="1">
+        <v>157450.38099999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B327" s="4">
-        <v>157450.38099999999</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="15.75" thickBot="1">
+        <v>154990.24900000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B328" s="4">
-        <v>154990.24900000001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="15.75" thickBot="1">
+        <v>140225.117</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B329" s="4">
-        <v>140225.117</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" ht="15.75" thickBot="1">
+        <v>153663.90700000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B330" s="4">
-        <v>153663.90700000001</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" ht="15.75" thickBot="1">
+        <v>166892.89499999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B331" s="4">
-        <v>166892.89499999999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="15.75" thickBot="1">
+        <v>172583.076</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B332" s="4">
-        <v>172583.076</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="15.75" thickBot="1">
+        <v>179400.573</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B333" s="4">
-        <v>179400.573</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="15.75" thickBot="1">
+        <v>160113.32999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="4">
-        <v>160113.32999999999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" ht="15.75" thickBot="1">
+        <v>157145.875</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B335" s="4">
-        <v>157145.875</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="15.75" thickBot="1">
+        <v>153697.147</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B336" s="4">
-        <v>153697.147</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="15.75" thickBot="1">
+        <v>170722.20199999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B337" s="4">
-        <v>170722.20199999999</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="15.75" thickBot="1">
+        <v>175303.443</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B338" s="4">
-        <v>175303.443</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="15.75" thickBot="1">
+        <v>148059.242</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B339" s="4">
-        <v>148059.242</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="15.75" thickBot="1">
+        <v>153452.065</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B340" s="4">
-        <v>153452.065</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="15.75" thickBot="1">
+        <v>139033.76199999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B341" s="4">
-        <v>139033.76199999999</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="15.75" thickBot="1">
+        <v>150043.23699999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B342" s="4">
-        <v>150043.23699999999</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="15.75" thickBot="1">
+        <v>160887.899</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B343" s="4">
-        <v>160887.899</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="15.75" thickBot="1">
+        <v>177141.59099999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B344" s="4">
-        <v>177141.59099999999</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="15.75" thickBot="1">
+        <v>181052.50099999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B345" s="4">
-        <v>181052.50099999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="15.75" thickBot="1">
+        <v>152449.85200000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B346" s="4">
-        <v>152449.85200000001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="15.75" thickBot="1">
+        <v>147218.337</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B347" s="4">
-        <v>147218.337</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="15.75" thickBot="1">
+        <v>142472.72099999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B348" s="4">
-        <v>142472.72099999999</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="15.75" thickBot="1">
+        <v>155711.48499999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B349" s="4">
-        <v>155711.48499999999</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="15.75" thickBot="1">
+        <v>162520.95199999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B350" s="4">
-        <v>162520.95199999999</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="15.75" thickBot="1">
+        <v>141429.883</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B351" s="4">
-        <v>141429.883</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="15.75" thickBot="1">
+        <v>149724.027</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B352" s="4">
-        <v>149724.027</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" ht="15.75" thickBot="1">
+        <v>140497.99</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B353" s="4">
-        <v>140497.99</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="15.75" thickBot="1">
+        <v>149646.226</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B354" s="4">
-        <v>149646.226</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="15.75" thickBot="1">
+        <v>162736.26</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B355" s="4">
-        <v>162736.26</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="15.75" thickBot="1">
+        <v>181001.26699999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B356" s="4">
-        <v>181001.26699999999</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" ht="15.75" thickBot="1">
+        <v>177961.921</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B357" s="4">
-        <v>177961.921</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="15.75" thickBot="1">
+        <v>163497.09299999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358" s="4">
-        <v>163497.09299999999</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="15.75" thickBot="1">
+        <v>157194.815</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B359" s="4">
-        <v>157194.815</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="15.75" thickBot="1">
+        <v>154171.74600000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B360" s="4">
-        <v>154171.74600000001</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="15.75" thickBot="1">
+        <v>170230.63200000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B361" s="4">
-        <v>170230.63200000001</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="15.75" thickBot="1">
+        <v>179356.20499999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B362" s="4">
-        <v>179356.20499999999</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="15.75" thickBot="1">
+        <v>155283.28899999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B363" s="4">
-        <v>155283.28899999999</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="15.75" thickBot="1">
+        <v>153322.95600000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B364" s="4">
-        <v>153322.95600000001</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="15.75" thickBot="1">
+        <v>140368.83600000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B365" s="4">
-        <v>140368.83600000001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="15.75" thickBot="1">
+        <v>148573.997</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B366" s="4">
-        <v>148573.997</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" ht="15.75" thickBot="1">
+        <v>160558.842</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B367" s="4">
-        <v>160558.842</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="15.75" thickBot="1">
+        <v>180005.823</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B368" s="4">
-        <v>180005.823</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="15.75" thickBot="1">
+        <v>183469.25599999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B369" s="4">
-        <v>183469.25599999999</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="15.75" thickBot="1">
+        <v>163243.21299999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B370" s="4">
-        <v>163243.21299999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="15.75" thickBot="1">
+        <v>157577.568</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B371" s="4">
-        <v>157577.568</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="15.75" thickBot="1">
+        <v>156536.19699999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B372" s="4">
-        <v>156536.19699999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="15.75" thickBot="1">
+        <v>174417.644</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B373" s="4">
-        <v>174417.644</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="15.75" thickBot="1">
+        <v>178714.851</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B374" s="4">
-        <v>178714.851</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="15.75" thickBot="1">
+        <v>159782.9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B375" s="4">
-        <v>159782.9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="15.75" thickBot="1">
+        <v>152551.421</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B376" s="4">
-        <v>152551.421</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="15.75" thickBot="1">
+        <v>139830.58100000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B377" s="4">
-        <v>139830.58100000001</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="15.75" thickBot="1">
+        <v>155287.538</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B378" s="4">
-        <v>155287.538</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="15.75" thickBot="1">
+        <v>165842.103</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B379" s="4">
-        <v>165842.103</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="15.75" thickBot="1">
+        <v>179599.99799999999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B380" s="4">
-        <v>179599.99799999999</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="15.75" thickBot="1">
+        <v>176372.52900000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B381" s="4">
-        <v>176372.52900000001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="15.75" thickBot="1">
+        <v>162593.09899999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B382" s="4">
-        <v>162593.09899999999</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="15.75" thickBot="1">
+        <v>155903.77799999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B383" s="4">
-        <v>155903.77799999999</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="15.75" thickBot="1">
+        <v>155766.731</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B384" s="4">
-        <v>155766.731</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="15.75" thickBot="1">
+        <v>174942.182</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B385" s="4">
-        <v>174942.182</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="15.75" thickBot="1">
+        <v>175247.522</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B386" s="4">
-        <v>175247.522</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" ht="15.75" thickBot="1">
+        <v>154168.21100000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B387" s="4">
-        <v>154168.21100000001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="15.75" thickBot="1">
+        <v>161863.022</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B388" s="4">
-        <v>161863.022</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="15.75" thickBot="1">
+        <v>141460.35800000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B389" s="4">
-        <v>141460.35800000001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="15.75" thickBot="1">
+        <v>152345.33100000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B390" s="4">
-        <v>152345.33100000001</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="15.75" thickBot="1">
+        <v>173147.21400000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B391" s="4">
-        <v>173147.21400000001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="15.75" thickBot="1">
+        <v>184212.948</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B392" s="4">
-        <v>184212.948</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="15.75" thickBot="1">
+        <v>185729.95600000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B393" s="4">
-        <v>185729.95600000001</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="15.75" thickBot="1">
+        <v>169922.065</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B394" s="4">
-        <v>169922.065</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" ht="15.75" thickBot="1">
+        <v>160731.39499999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B395" s="4">
-        <v>160731.39499999999</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="15.75" thickBot="1">
+        <v>157091.052</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B396" s="4">
-        <v>157091.052</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" ht="15.75" thickBot="1">
+        <v>176134.804</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B397" s="4">
-        <v>176134.804</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="15.75" thickBot="1">
+        <v>167478.17600000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B398" s="4">
-        <v>167478.17600000001</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="15.75" thickBot="1">
+        <v>157015.046</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B399" s="4">
-        <v>157015.046</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="15.75" thickBot="1">
+        <v>159588.96299999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B400" s="4">
-        <v>159588.96299999999</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" ht="15.75" thickBot="1">
+        <v>139729.95800000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B401" s="4">
-        <v>139729.95800000001</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" ht="15.75" thickBot="1">
+        <v>155290.02799999999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B402" s="4">
-        <v>155290.02799999999</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" ht="15.75" thickBot="1">
+        <v>167906.785</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B403" s="4">
-        <v>167906.785</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" ht="15.75" thickBot="1">
+        <v>185951.209</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B404" s="4">
-        <v>185951.209</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" ht="15.75" thickBot="1">
+        <v>187576.33499999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B405" s="4">
-        <v>187576.33499999999</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" ht="15.75" thickBot="1">
+        <v>159899.18700000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B406" s="4">
-        <v>159899.18700000001</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" ht="15.75" thickBot="1">
+        <v>159674.12599999999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B407" s="4">
-        <v>159674.12599999999</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" ht="15.75" thickBot="1">
+        <v>157817.29</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B408" s="4">
-        <v>157817.29</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" ht="15.75" thickBot="1">
+        <v>171810.04199999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B409" s="4">
-        <v>171810.04199999999</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" ht="15.75" thickBot="1">
+        <v>174252.799</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B410" s="4">
-        <v>174252.799</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" ht="15.75" thickBot="1">
+        <v>162199.17300000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B411" s="4">
-        <v>162199.17300000001</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" ht="15.75" thickBot="1">
+        <v>158273.04399999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B412" s="4">
-        <v>158273.04399999999</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" ht="15.75" thickBot="1">
+        <v>144798.894</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B413" s="4">
-        <v>144798.894</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" ht="15.75" thickBot="1">
+        <v>155991.34</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B414" s="4">
-        <v>155991.34</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" ht="15.75" thickBot="1">
+        <v>171993.81599999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B415" s="4">
-        <v>171993.81599999999</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" ht="15.75" thickBot="1">
+        <v>183483.47200000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B416" s="4">
-        <v>183483.47200000001</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" ht="15.75" thickBot="1">
+        <v>188516.11799999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B417" s="4">
-        <v>188516.11799999999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" ht="15.75" thickBot="1">
+        <v>167888.405</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B418" s="4">
-        <v>167888.405</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="15.75" thickBot="1">
+        <v>160696.139</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="4">
-        <v>160696.139</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" ht="15.75" thickBot="1">
+        <v>157935.6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B420" s="4">
-        <v>157935.6</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" ht="15.75" thickBot="1">
+        <v>172361.497</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B421" s="4">
-        <v>172361.497</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" ht="15.75" thickBot="1">
+        <v>181336.696</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B422" s="4">
-        <v>181336.696</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" ht="15.75" thickBot="1">
+        <v>165343.00399999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B423" s="4">
-        <v>165343.00399999999</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="15.75" thickBot="1">
+        <v>159283.72899999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B424" s="4">
-        <v>159283.72899999999</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="15.75" thickBot="1">
+        <v>145586.62100000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B425" s="4">
-        <v>145586.62100000001</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="15.75" thickBot="1">
+        <v>153472.66</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B426" s="4">
-        <v>153472.66</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="15.75" thickBot="1">
+        <v>169600.09400000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B427" s="4">
-        <v>169600.09400000001</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="15.75" thickBot="1">
+        <v>185208.307</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B428" s="4">
-        <v>185208.307</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="15.75" thickBot="1">
+        <v>179081.50399999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B429" s="4">
-        <v>179081.50399999999</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="15.75" thickBot="1">
+        <v>159933.07699999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B430" s="4">
-        <v>159933.07699999999</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="15.75" thickBot="1">
+        <v>150463.60999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B431" s="4">
-        <v>150463.60999999999</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="15.75" thickBot="1">
+        <v>153016.19</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B432" s="4">
-        <v>153016.19</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="15.75" thickBot="1">
+        <v>166512.092</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B433" s="4">
-        <v>166512.092</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="15.75" thickBot="1">
+        <v>170625.51300000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B434" s="4">
-        <v>170625.51300000001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" ht="15.75" thickBot="1">
+        <v>139742.74299999999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B435" s="4">
-        <v>139742.74299999999</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="15.75" thickBot="1">
+        <v>134313.758</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B436" s="4">
-        <v>134313.758</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="15.75" thickBot="1">
+        <v>124802.774</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B437" s="4">
-        <v>124802.774</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="15.75" thickBot="1">
+        <v>130526.754</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B438" s="4">
-        <v>130526.754</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" ht="15.75" thickBot="1">
+        <v>146844.98000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B439" s="4">
-        <v>146844.98000000001</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" ht="15.75" thickBot="1">
+        <v>156943.11199999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B440" s="4">
-        <v>156943.11199999999</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" ht="15.75" thickBot="1">
+        <v>161916.54500000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B441" s="4">
-        <v>161916.54500000001</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="15.75" thickBot="1">
+        <v>135949.79800000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B442" s="4">
-        <v>135949.79800000001</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" ht="15.75" thickBot="1">
+        <v>138667.06</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B443" s="4">
-        <v>138667.06</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" ht="15.75" thickBot="1">
+        <v>135643.90599999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B444" s="4">
-        <v>135643.90599999999</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" ht="15.75" thickBot="1">
+        <v>165146.08300000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B445" s="4">
-        <v>165146.08300000001</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="15.75" thickBot="1">
+        <v>171660.23</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B446" s="4">
-        <v>171660.23</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" ht="15.75" thickBot="1">
+        <v>151461.095</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B447" s="4">
-        <v>151461.095</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" ht="15.75" thickBot="1">
+        <v>142664.91899999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B448" s="4">
-        <v>142664.91899999999</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" ht="15.75" thickBot="1">
+        <v>125614.64</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B449" s="4">
-        <v>125614.64</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" ht="15.75" thickBot="1">
+        <v>141669.24900000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B450" s="4">
-        <v>141669.24900000001</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" ht="15.75" thickBot="1">
+        <v>163912.106</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B451" s="4">
-        <v>163912.106</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" ht="15.75" thickBot="1">
+        <v>177777.932</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B452" s="4">
-        <v>177777.932</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" ht="15.75" thickBot="1">
+        <v>175848.47399999999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B453" s="4">
-        <v>175848.47399999999</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" ht="15.75" thickBot="1">
+        <v>147157.217</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B454" s="4">
-        <v>147157.217</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" ht="15.75" thickBot="1">
+        <v>130662.656</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B455" s="4">
-        <v>130662.656</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" ht="15.75" thickBot="1">
+        <v>133815.364</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B456" s="4">
-        <v>133815.364</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" ht="15.75" thickBot="1">
+        <v>165493.66200000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B457" s="4">
-        <v>165493.66200000001</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" ht="15.75" thickBot="1">
+        <v>169390.42800000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B458" s="4">
-        <v>169390.42800000001</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" ht="15.75" thickBot="1">
+        <v>137082.33199999999</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B459" s="4">
-        <v>137082.33199999999</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" ht="15.75" thickBot="1">
+        <v>133583.554</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B460" s="4">
-        <v>133583.554</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" ht="15.75" thickBot="1">
+        <v>123271.719</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B461" s="4">
-        <v>123271.719</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" ht="15.75" thickBot="1">
+        <v>135820.36300000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B462" s="4">
-        <v>135820.36300000001</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" ht="15.75" thickBot="1">
+        <v>156716.15</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B463" s="4">
-        <v>156716.15</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" ht="15.75" thickBot="1">
+        <v>175129.23199999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B464" s="4">
-        <v>175129.23199999999</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="15.75" thickBot="1">
+        <v>169798.386</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B465" s="4">
-        <v>169798.386</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="15.75" thickBot="1">
+        <v>139648.36300000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B466" s="4">
-        <v>139648.36300000001</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="15.75" thickBot="1">
+        <v>125441.682</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B467" s="4">
-        <v>125441.682</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="15.75" thickBot="1">
+        <v>120322.853</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B468" s="4">
-        <v>120322.853</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="15.75" thickBot="1">
+        <v>131685.671</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B469" s="4">
-        <v>131685.671</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="15.75" thickBot="1">
+        <v>127873.50199999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B470" s="4">
-        <v>127873.50199999999</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="15.75" thickBot="1">
+        <v>112773.61900000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B471" s="4">
-        <v>112773.61900000001</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="15.75" thickBot="1">
+        <v>104410.42200000001</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B472" s="4">
-        <v>104410.42200000001</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="15.75" thickBot="1">
+        <v>95284.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B473" s="4">
-        <v>95284.3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="15.75" thickBot="1">
+        <v>114929.68799999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B474" s="4">
-        <v>114929.68799999999</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="15.75" thickBot="1">
+        <v>130147.235</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B475" s="4">
-        <v>130147.235</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="15.75" thickBot="1">
+        <v>159177.89199999999</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B476" s="4">
-        <v>159177.89199999999</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="15.75" thickBot="1">
+        <v>150940.99299999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B477" s="4">
-        <v>150940.99299999999</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="15.75" thickBot="1">
+        <v>124495.93</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B478" s="4">
-        <v>124495.93</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="15.75" thickBot="1">
+        <v>119952.488</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" s="4">
-        <v>119952.488</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="15.75" thickBot="1">
+        <v>127647.76</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B480" s="4">
-        <v>127647.76</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="15.75" thickBot="1">
+        <v>132923.02600000001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B481" s="4">
-        <v>132923.02600000001</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="15.75" thickBot="1">
+        <v>136952.22399999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B482" s="4">
-        <v>136952.22399999999</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="15.75" thickBot="1">
+        <v>122483.696</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B483" s="4">
-        <v>122483.696</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="15.75" thickBot="1">
+        <v>129469.24</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B484" s="4">
-        <v>129469.24</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="15.75" thickBot="1">
+        <v>110786.24400000001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B485" s="4">
-        <v>110786.24400000001</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="15.75" thickBot="1">
+        <v>118379.72500000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B486" s="4">
-        <v>118379.72500000001</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="15.75" thickBot="1">
+        <v>137160.14499999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B487" s="4">
-        <v>137160.14499999999</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="15.75" thickBot="1">
+        <v>151653.14499999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B488" s="4">
-        <v>151653.14499999999</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="15.75" thickBot="1">
+        <v>148288.39799999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B489" s="4">
-        <v>148288.39799999999</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="15.75" thickBot="1">
+        <v>132046.76800000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B490" s="4">
-        <v>132046.76800000001</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="15.75" thickBot="1">
+        <v>119942.622</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B491" s="4">
-        <v>119942.622</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="15.75" thickBot="1">
+        <v>119857.61</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B492" s="4">
-        <v>119857.61</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="15.75" thickBot="1">
+        <v>140702.679</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B493" s="4">
-        <v>140702.679</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="15.75" thickBot="1">
+        <v>155916.30300000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B494" s="4">
-        <v>155916.30300000001</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="15.75" thickBot="1">
+        <v>142217.61300000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B495" s="4">
-        <v>142217.61300000001</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="15.75" thickBot="1">
+        <v>135290.23499999999</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B496" s="4">
-        <v>135290.23499999999</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="15.75" thickBot="1">
+        <v>108278.679</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B497" s="4">
-        <v>108278.679</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="15.75" thickBot="1">
+        <v>117738.378</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B498" s="4">
-        <v>117738.378</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="15.75" thickBot="1">
+        <v>136469.81599999999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B499" s="4">
-        <v>136469.81599999999</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="15.75" thickBot="1">
+        <v>148472.18700000001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B500" s="4">
-        <v>148472.18700000001</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="15.75" thickBot="1">
+        <v>147328.99100000001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B501" s="4">
-        <v>147328.99100000001</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="15.75" thickBot="1">
+        <v>125061.692</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B502" s="4">
-        <v>125061.692</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="15.75" thickBot="1">
+        <v>110322.186</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B503" s="4">
-        <v>110322.186</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="15.75" thickBot="1">
+        <v>118117.548</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B504" s="4">
-        <v>118117.548</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="15.75" thickBot="1">
+        <v>123560.732</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B505" s="4">
-        <v>123560.732</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="15.75" thickBot="1">
+        <v>131430.696</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B506" s="4">
-        <v>131430.696</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="15.75" thickBot="1">
+        <v>126023.568</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B507" s="4">
-        <v>126023.568</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="15.75" thickBot="1">
+        <v>107471.004</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B508" s="4">
-        <v>107471.004</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="15.75" thickBot="1">
+        <v>88146.966</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B509" s="4">
-        <v>88146.966</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" ht="15.75" thickBot="1">
+        <v>103671.569</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B510" s="4">
-        <v>103671.569</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="15.75" thickBot="1">
+        <v>124677.117</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B511" s="4">
-        <v>124677.117</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="15.75" thickBot="1">
+        <v>138060.486</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B512" s="4">
-        <v>138060.486</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="15.75" thickBot="1">
+        <v>133651.285</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B513" s="4">
-        <v>133651.285</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="15.75" thickBot="1">
+        <v>117005.40700000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B514" s="4">
-        <v>117005.40700000001</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="15.75" thickBot="1">
+        <v>95871.51</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B515" s="4">
-        <v>95871.51</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="15.75" thickBot="1">
+        <v>86361.96</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B516" s="4">
-        <v>86361.96</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="15.75" thickBot="1">
+        <v>88621.73</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B517" s="4">
-        <v>88621.73</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="15.75" thickBot="1">
+        <v>112623.96</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B518" s="4">
-        <v>112623.96</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="15.75" thickBot="1">
+        <v>91909.152000000002</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B519" s="4">
-        <v>91909.152000000002</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="15.75" thickBot="1">
+        <v>71345.754000000001</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B520" s="4">
-        <v>71345.754000000001</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="15.75" thickBot="1">
+        <v>71419.13</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B521" s="4">
-        <v>71419.13</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="15.75" thickBot="1">
+        <v>80934.705000000002</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B522" s="4">
-        <v>80934.705000000002</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="15.75" thickBot="1">
+        <v>115196.696</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B523" s="4">
-        <v>115196.696</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="15.75" thickBot="1">
+        <v>135420.05300000001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B524" s="4">
-        <v>135420.05300000001</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" ht="15.75" thickBot="1">
+        <v>134762.429</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B525" s="4">
-        <v>134762.429</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="15.75" thickBot="1">
+        <v>113346.96799999999</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B526" s="4">
-        <v>113346.96799999999</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="15.75" thickBot="1">
+        <v>98473.770999999993</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B527" s="4">
-        <v>98473.770999999993</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="15.75" thickBot="1">
+        <v>86275.31</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B528" s="4">
-        <v>86275.31</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="15.75" thickBot="1">
+        <v>117954.773</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B529" s="4">
-        <v>117954.773</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="15.75" thickBot="1">
+        <v>114572.02099999999</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B530" s="4">
-        <v>114572.02099999999</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="15.75" thickBot="1">
+        <v>86157.862999999998</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B531" s="4">
-        <v>86157.862999999998</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="15.75" thickBot="1">
+        <v>88687.574999999997</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B532" s="4">
-        <v>88687.574999999997</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="15.75" thickBot="1">
+        <v>80742.741999999998</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B533" s="4">
-        <v>80742.741999999998</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="15.75" thickBot="1">
+        <v>92141.448000000004</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B534" s="4">
-        <v>92141.448000000004</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="15.75" thickBot="1">
+        <v>106825.311</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B535" s="4">
-        <v>106825.311</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="15.75" thickBot="1">
+        <v>127018.728</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B536" s="4">
-        <v>127018.728</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="15.75" thickBot="1">
+        <v>118809.977</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B537" s="4">
-        <v>118809.977</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="15.75" thickBot="1">
+        <v>97560.379000000001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B538" s="4">
-        <v>97560.379000000001</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="15.75" thickBot="1">
+        <v>89114.281000000003</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B539" s="4">
-        <v>89114.281000000003</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="15.75" thickBot="1">
+        <v>90347.26</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="3" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B540" s="4">
-        <v>90347.26</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="15.75" thickBot="1">
+        <v>105860.34600000001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B541" s="4">
-        <v>105860.34600000001</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="15.75" thickBot="1">
+        <v>118557.18799999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B542" s="4">
-        <v>118557.18799999999</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="15.75" thickBot="1">
+        <v>81399.062999999995</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B543" s="4">
-        <v>81399.062999999995</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="15.75" thickBot="1">
+        <v>79982.641000000003</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="4">
-        <v>79982.641000000003</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="15.75" thickBot="1">
+        <v>72787.437999999995</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B545" s="4">
-        <v>72787.437999999995</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="15.75" thickBot="1">
+        <v>84633.934999999998</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B546" s="4">
-        <v>84633.934999999998</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="15.75" thickBot="1">
+        <v>100893.712</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B547" s="4">
-        <v>100893.712</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="15.75" thickBot="1">
+        <v>114748.806</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B548" s="4">
-        <v>114748.806</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="15.75" thickBot="1">
+        <v>114516.287</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B549" s="4">
-        <v>114516.287</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="15.75" thickBot="1">
+        <v>95961.853000000003</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B550" s="4">
-        <v>95961.853000000003</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="15.75" thickBot="1">
+        <v>86736.176999999996</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B551" s="4">
-        <v>86736.176999999996</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="15.75" thickBot="1">
+        <v>92257.714999999997</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B552" s="4">
-        <v>92257.714999999997</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="15.75" thickBot="1">
+        <v>99698.195999999996</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B553" s="4">
-        <v>99698.195999999996</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="15.75" thickBot="1">
+        <v>100294.41</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B554" s="4">
-        <v>100294.41</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="15.75" thickBot="1">
+        <v>79381.748999999996</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B555" s="4">
-        <v>79381.748999999996</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="15.75" thickBot="1">
+        <v>77819.349000000002</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="3" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B556" s="4">
-        <v>77819.349000000002</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="15.75" thickBot="1">
+        <v>59426.201000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B557" s="4">
-        <v>59426.201000000001</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="15.75" thickBot="1">
+        <v>71387.601999999999</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B558" s="4">
-        <v>71387.601999999999</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="15.75" thickBot="1">
+        <v>78042.789000000004</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B559" s="4">
-        <v>78042.789000000004</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="15.75" thickBot="1">
+        <v>100224.713</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B560" s="4">
-        <v>100224.713</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" ht="15.75" thickBot="1">
+        <v>93516.601999999999</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B561" s="4">
-        <v>93516.601999999999</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="15.75" thickBot="1">
+        <v>85215.956999999995</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B562" s="4">
-        <v>85215.956999999995</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" ht="15.75" thickBot="1">
+        <v>66311.207999999999</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B563" s="4">
-        <v>66311.207999999999</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="15.75" thickBot="1">
+        <v>75046.173999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B564" s="4">
-        <v>75046.173999999999</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" ht="15.75" thickBot="1">
+        <v>72065.240000000005</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B565" s="4">
-        <v>72065.240000000005</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="15.75" thickBot="1">
+        <v>64547.735999999997</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B566" s="4">
-        <v>64547.735999999997</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="15.75" thickBot="1">
+        <v>55590.324000000001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B567" s="4">
-        <v>55590.324000000001</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="15.75" thickBot="1">
+        <v>50144.633000000002</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B568" s="4">
-        <v>50144.633000000002</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="15.75" thickBot="1">
+        <v>40188.540999999997</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B569" s="4">
-        <v>40188.540999999997</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="15.75" thickBot="1">
+        <v>46093.826000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B570" s="4">
-        <v>46093.826000000001</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="15.75" thickBot="1">
+        <v>64920.402999999998</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B571" s="4">
-        <v>64920.402999999998</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="15.75" thickBot="1">
+        <v>89367.615999999995</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="3" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B572" s="4">
-        <v>89367.615999999995</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" ht="15.75" thickBot="1">
+        <v>90814.313999999998</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B573" s="4">
-        <v>90814.313999999998</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="15.75" thickBot="1">
+        <v>67977.563999999998</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B574" s="4">
-        <v>67977.563999999998</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="15.75" thickBot="1">
+        <v>59440.228999999999</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B575" s="4">
-        <v>59440.228999999999</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" ht="15.75" thickBot="1">
+        <v>60895.921000000002</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B576" s="4">
-        <v>60895.921000000002</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" ht="15.75" thickBot="1">
+        <v>78215.002999999997</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B577" s="4">
-        <v>78215.002999999997</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" ht="15.75" thickBot="1">
+        <v>81340.13</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="3" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B578" s="4">
-        <v>81340.13</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" ht="15.75" thickBot="1">
+        <v>87393.032999999996</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B579" s="4">
-        <v>87393.032999999996</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A580" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B580" s="4">
         <v>61560.817000000003</v>
       </c>
     </row>
@@ -6802,24 +6846,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
